--- a/static/excel-qr.xlsx
+++ b/static/excel-qr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\Desktop\siit-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ligence\Downloads\Desktop\siit-1\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC7E44-A0BA-479D-911C-830F89C5AA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F650D9AF-2B6E-4E46-9A29-D8829942F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30F78AB0-95D9-4CA1-9553-7ECFF30FFC41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30F78AB0-95D9-4CA1-9553-7ECFF30FFC41}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Data" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
   <si>
     <t>Graphic Designing</t>
   </si>
@@ -335,9 +338,6 @@
     <t>S25GD-B01-008</t>
   </si>
   <si>
-    <t>S25GD-B01-009</t>
-  </si>
-  <si>
     <t>S25PP-B01-001</t>
   </si>
   <si>
@@ -453,13 +453,22 @@
   </si>
   <si>
     <t>MOHAMMAD HASHIM ALI ZAIDI</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>S25BIT-B01-013</t>
+  </si>
+  <si>
+    <t>AROOJ ISHAQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +524,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -564,11 +573,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,12 +665,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,14 +672,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -615,13 +709,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -660,85 +764,19 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -759,17 +797,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -778,22 +825,247 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -810,17 +1082,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{714019D3-600B-472C-A464-42604B549E85}" name="Table1" displayName="Table1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{714019D3-600B-472C-A464-42604B549E85}" name="Table1" displayName="Table1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:H44" xr:uid="{714019D3-600B-472C-A464-42604B549E85}"/>
   <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{1B3C8C63-8014-4C89-A92A-7D5483F3A91F}" name="S#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{23F28EDA-5933-42AB-8238-9601829C947E}" name="Registration Number"/>
-    <tableColumn id="3" xr3:uid="{57D1237B-D03D-4394-A9B0-B1F55B46933E}" name="Student Name"/>
-    <tableColumn id="4" xr3:uid="{EE5DA68A-6998-4DF5-A74E-97EF9258FD29}" name="Father / Guardian Name" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{5F6EB3E5-7B00-4561-B100-E2D7BB6676D6}" name="Course" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{61C57CCF-7647-413C-9A69-EA0DAFB66579}" name="Course Content" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{D344C5A0-63BA-424A-A15A-D7BF273463B0}" name="Age" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4CDE9496-215A-4D7C-9AB9-3B9CFD2EAFF8}" name="Grade" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{1B3C8C63-8014-4C89-A92A-7D5483F3A91F}" name="S#" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{23F28EDA-5933-42AB-8238-9601829C947E}" name="Registration Number" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{57D1237B-D03D-4394-A9B0-B1F55B46933E}" name="Student Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EE5DA68A-6998-4DF5-A74E-97EF9258FD29}" name="Father / Guardian Name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5F6EB3E5-7B00-4561-B100-E2D7BB6676D6}" name="Course" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{61C57CCF-7647-413C-9A69-EA0DAFB66579}" name="Course Content" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D344C5A0-63BA-424A-A15A-D7BF273463B0}" name="Age" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4CDE9496-215A-4D7C-9AB9-3B9CFD2EAFF8}" name="Grade" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,51 +1418,51 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" customWidth="1"/>
-    <col min="4" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1199,24 +1471,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="H2" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -1225,24 +1497,24 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="H3" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -1251,24 +1523,24 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="H4" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -1277,20 +1549,20 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="2">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="H5" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1303,20 +1575,20 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="2">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="H6" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1332,17 +1604,17 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="2">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="H7" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1358,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="2">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="H8" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -1381,20 +1653,20 @@
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="2">
         <v>18</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="H9" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1407,20 +1679,20 @@
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="2">
         <v>11</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="H10" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1436,24 +1708,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="2">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="H11" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>28</v>
@@ -1462,21 +1734,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="2">
         <v>15</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="H12" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -1488,21 +1760,21 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="2">
         <v>14</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="H13" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>31</v>
@@ -1511,20 +1783,20 @@
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="2">
         <v>14</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="H14" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1537,24 +1809,24 @@
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="H15" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>33</v>
@@ -1566,21 +1838,21 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="2">
         <v>16</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="H16" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>35</v>
@@ -1589,20 +1861,20 @@
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="H17" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1618,17 +1890,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="2">
         <v>18</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="H18" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1641,24 +1913,24 @@
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2">
         <v>22</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="H19" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>39</v>
@@ -1667,24 +1939,24 @@
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="2">
         <v>22</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="H20" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>41</v>
@@ -1693,20 +1965,20 @@
         <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2">
         <v>15</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="H21" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1719,20 +1991,20 @@
         <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="2">
         <v>15</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="H22" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1748,17 +2020,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="2">
         <v>19</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="H23" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1771,20 +2043,20 @@
         <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2">
         <v>24</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="H24" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1797,24 +2069,24 @@
         <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="2">
         <v>17</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="H25" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>51</v>
@@ -1823,20 +2095,20 @@
         <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="2">
         <v>15</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="H26" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1852,17 +2124,17 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="2">
         <v>14</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="H27" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1878,21 +2150,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2">
         <v>18</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="H28" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>57</v>
@@ -1901,24 +2173,24 @@
         <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2">
         <v>14</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="H29" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>59</v>
@@ -1927,33 +2199,33 @@
         <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2">
         <v>15</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="H30" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>125</v>
@@ -1961,346 +2233,346 @@
       <c r="G31" s="2">
         <v>14</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="H31" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="2">
+        <v>17</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="2">
         <v>14</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="2">
-        <v>17</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G34" s="2">
-        <v>14</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+        <v>18</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G35" s="2">
-        <v>18</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+        <v>17</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G36" s="2">
-        <v>17</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+        <v>9</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="2">
+        <v>13</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="2">
+        <v>18</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="2">
+        <v>16</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="2">
+        <v>13</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="2">
-        <v>9</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="2">
-        <v>13</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="2">
-        <v>18</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="2">
-        <v>15</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="2">
-        <v>16</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G42" s="2">
-        <v>13</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="2">
+        <v>12</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="10">
-        <v>10</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="2">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>128</v>
+      <c r="G44" s="8">
+        <v>18</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
